--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771073.245529152</v>
+        <v>1766768.92848091</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651773</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651773</v>
+        <v>20.28958724568722</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739399</v>
+        <v>115.3507887739397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>116.6367944712282</v>
+        <v>152.793800617969</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651773</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>62.25686894448897</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807564</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642742</v>
+        <v>18.19058462642722</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>61.86010430259325</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>109.2511357605081</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825692</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718866</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>95.43856719274802</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.6622323399416</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>148.6865099692908</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>86.94204560289687</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>109.6896046272282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>16.0801771990911</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>93.65588946083825</v>
+        <v>165.226121848871</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>196.5331595487901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.9738082135727</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>182.6203814511592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>72.97607332171654</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.4832454124056</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>47.16611136584745</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>80.90831282609498</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.2834074964109</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>243.1373908222617</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.24347904696321</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="C2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="D2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="E2" t="n">
-        <v>669.6730679128248</v>
+        <v>165.0266067583238</v>
       </c>
       <c r="F2" t="n">
-        <v>403.629820675272</v>
+        <v>158.0811060091203</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377192</v>
+        <v>137.5865734377191</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377192</v>
+        <v>137.5865734377191</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121418</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467209</v>
+        <v>49.15993901467345</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935535</v>
+        <v>141.9970572935558</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959928</v>
+        <v>294.0714735959961</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795914</v>
+        <v>494.9530007795958</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670248</v>
+        <v>703.6988094670298</v>
       </c>
       <c r="O2" t="n">
-        <v>887.476296028885</v>
+        <v>887.4762960288911</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108056</v>
+        <v>1009.825128108063</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060709</v>
+        <v>1053.531259060716</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060709</v>
+        <v>1053.531259060716</v>
       </c>
       <c r="S2" t="n">
-        <v>935.7163151503776</v>
+        <v>899.1940867193335</v>
       </c>
       <c r="T2" t="n">
-        <v>935.7163151503776</v>
+        <v>684.7549646357877</v>
       </c>
       <c r="U2" t="n">
-        <v>935.7163151503776</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="V2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="W2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="X2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
       <c r="Y2" t="n">
-        <v>669.6730679128248</v>
+        <v>431.0698539958785</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.8448413236689</v>
+        <v>404.9439386420109</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3918120425419</v>
+        <v>230.4909093608839</v>
       </c>
       <c r="D3" t="n">
-        <v>65.45740238129059</v>
+        <v>230.4909093608839</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129059</v>
+        <v>167.6051831543294</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129059</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129059</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129059</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121418</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121418</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001370925</v>
+        <v>95.65665001370991</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433147</v>
+        <v>338.1990901420687</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285298994</v>
+        <v>528.6460126286543</v>
       </c>
       <c r="N3" t="n">
-        <v>642.612359277947</v>
+        <v>738.5421433767027</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760916</v>
+        <v>908.3363012748481</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634587</v>
+        <v>1025.278016062216</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060709</v>
+        <v>1053.531259060716</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155227</v>
+        <v>1035.156931155234</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155227</v>
+        <v>1035.156931155234</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155227</v>
+        <v>1035.156931155234</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155227</v>
+        <v>1035.156931155234</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155227</v>
+        <v>1035.156931155234</v>
       </c>
       <c r="W3" t="n">
-        <v>972.6719773142236</v>
+        <v>780.9195744270328</v>
       </c>
       <c r="X3" t="n">
-        <v>764.8204771086907</v>
+        <v>780.9195744270328</v>
       </c>
       <c r="Y3" t="n">
-        <v>557.0601783437369</v>
+        <v>573.1592756620789</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.8030916731105</v>
+        <v>171.1872645935501</v>
       </c>
       <c r="C4" t="n">
-        <v>186.4484090867387</v>
+        <v>171.1872645935501</v>
       </c>
       <c r="D4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="E4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="F4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440299</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121418</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940623</v>
+        <v>126.3277805481195</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964268</v>
+        <v>316.5471352504843</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030231</v>
+        <v>527.495897157081</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231669999</v>
+        <v>738.8633854210581</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836187</v>
+        <v>918.0791761376772</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.07920109736</v>
+        <v>1047.908563351419</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060709</v>
+        <v>1053.531259060716</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898971873</v>
+        <v>924.7153898971947</v>
       </c>
       <c r="S4" t="n">
-        <v>924.7153898971873</v>
+        <v>924.7153898971947</v>
       </c>
       <c r="T4" t="n">
-        <v>699.2441356468804</v>
+        <v>924.7153898971947</v>
       </c>
       <c r="U4" t="n">
-        <v>699.2441356468804</v>
+        <v>924.7153898971947</v>
       </c>
       <c r="V4" t="n">
-        <v>699.2441356468804</v>
+        <v>670.0309016913078</v>
       </c>
       <c r="W4" t="n">
-        <v>699.2441356468804</v>
+        <v>573.6283085673199</v>
       </c>
       <c r="X4" t="n">
-        <v>699.2441356468804</v>
+        <v>573.6283085673199</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.4515565033503</v>
+        <v>352.8357294237898</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
         <v>137.5684432757741</v>
@@ -4576,13 +4576,13 @@
         <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X5" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.7928453799753</v>
+        <v>840.4214638411526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526.2466943808109</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>351.7936650996839</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>202.8592554384327</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>202.8592554384327</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>948.6993881290805</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W6" t="n">
-        <v>694.4620314008789</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X6" t="n">
-        <v>694.4620314008789</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.4620314008789</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>424.4249251342374</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4249251342374</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>424.4249251342374</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>424.4249251342374</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1038.612916774619</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102551</v>
+        <v>62.91113280331016</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362704</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852815981</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872829</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923556</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.038212380325</v>
+        <v>2270.745048352009</v>
       </c>
       <c r="V8" t="n">
-        <v>2011.975325036754</v>
+        <v>1939.682161008438</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.975325036754</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775674</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370166</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735154</v>
+        <v>614.5430248380169</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049882</v>
+        <v>909.2465818694898</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.10498716421</v>
+        <v>1272.508600828711</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761156</v>
+        <v>1659.793729425658</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937319</v>
+        <v>1991.86416460182</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751034</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751034</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751034</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751034</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751034</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751034</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784819</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288657</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V10" t="n">
-        <v>823.2475523100813</v>
+        <v>1381.761631868615</v>
       </c>
       <c r="W10" t="n">
-        <v>533.8303822731207</v>
+        <v>1092.344461831654</v>
       </c>
       <c r="X10" t="n">
-        <v>305.8408313751034</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751034</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253734</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.3728552556131</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>97.30493720974067</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5475,13 +5475,13 @@
         <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1053.171308869725</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>884.2351259418183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>734.1184865294825</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>586.2053929470894</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>439.315445449179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.601903741512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.612352843495</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.819773699965</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>450.3671302240731</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>283.171030938953</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>141.4591997811511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.306025422647</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>929.3698424947402</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>779.2532030824044</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>631.3401095000113</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.4501620021009</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.2540627169809</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.5422315591789</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.747069396417</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1279.954490252887</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257312</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
         <v>705.9324428257312</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2389.141387573227</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2169.539922596168</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1880.464695940366</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1625.780207734479</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1336.363037697518</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1108.373486799501</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>887.5809076559709</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7390,43 +7390,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306002</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378095</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>2505.716550965759</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>2357.803457383366</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053497</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076438</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420636</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177789</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279772</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136242</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387737</v>
+        <v>60.59164343877333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423080076</v>
+        <v>2.109135423079778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>96.89877181692194</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181691944</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940902</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872719403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878278</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.36925650588654</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.21924749803927</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.8413214260727</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.9026168854318</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>45.04089287986321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09972495271808</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>62.35543909864924</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3575234924705484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>79.42624789262629</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>9.000252501566337</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7828069546814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012621</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>899605.0159751285</v>
+        <v>899605.0159751286</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879271.5300019905</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909256</v>
+        <v>679702.4124909276</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680976818</v>
+        <v>366.4703680957484</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059455</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624544</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642004</v>
+        <v>68912.53318642046</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774348814</v>
+        <v>85.20559774307851</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674041</v>
+        <v>253116.5477674036</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557663</v>
+        <v>63021.46164557678</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441637.227245515</v>
+        <v>-441637.2272455167</v>
       </c>
       <c r="C6" t="n">
-        <v>237772.1561786921</v>
+        <v>237772.1561786942</v>
       </c>
       <c r="D6" t="n">
-        <v>-72609.89885509803</v>
+        <v>-72609.89885509806</v>
       </c>
       <c r="E6" t="n">
-        <v>-76170.93683951521</v>
+        <v>-76518.3160938722</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850288</v>
+        <v>430967.1255306717</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.5047850287</v>
+        <v>430967.1255306721</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850287</v>
+        <v>430967.1255306721</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850287</v>
+        <v>430967.1255306721</v>
       </c>
       <c r="J6" t="n">
-        <v>362401.9715986087</v>
+        <v>362054.5923442511</v>
       </c>
       <c r="K6" t="n">
-        <v>431229.2991872853</v>
+        <v>430881.9199329288</v>
       </c>
       <c r="L6" t="n">
-        <v>335931.8586474588</v>
+        <v>335584.4793931021</v>
       </c>
       <c r="M6" t="n">
-        <v>298707.2110561021</v>
+        <v>298359.831801745</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850287</v>
+        <v>430967.1255306716</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306717</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850287</v>
+        <v>430967.1255306715</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960484</v>
+        <v>613.7700232960499</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651773</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960484</v>
+        <v>613.7700232960499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734298434</v>
+        <v>0.2849904734283655</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480634</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241324</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651773</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363288682</v>
+        <v>0.3310652363270492</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651773</v>
+        <v>263.3828147651789</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363288682</v>
+        <v>0.3310652363272766</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651773</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363288682</v>
+        <v>0.3310652363270492</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.5475553070827</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765342</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708782</v>
+        <v>392.5457330903682</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305183</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.15700614674094</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627105</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495763</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>95.38821151091197</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500685</v>
+        <v>99.48524054500682</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>147.1613215881891</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985097</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>189.8348788583264</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57.99568533811973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557938</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180234</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825672</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>204.7281204196194</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.084431143843</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.071609323539</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>233.243860102971</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,16 +27669,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>145.8585415465284</v>
+        <v>222.6160234237689</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>57.19406241131834</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>111.4244256845728</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>157.3893606676237</v>
+        <v>85.81912827959101</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>55.60448377503786</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.73584717546444</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46741717907959</v>
+        <v>2.467417179079596</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524885</v>
+        <v>25.26943618524891</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646597</v>
+        <v>95.1251007964662</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029065</v>
+        <v>209.418948802907</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933456</v>
+        <v>313.8647179933463</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876027</v>
+        <v>389.3769364876036</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460593</v>
+        <v>433.2568667460604</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061192</v>
+        <v>440.2674158061203</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316465</v>
+        <v>415.7320362316476</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231191</v>
+        <v>354.81767462312</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973313</v>
+        <v>266.4532968973319</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753584</v>
+        <v>154.9938943753588</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827621</v>
+        <v>56.22626896827634</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142091</v>
+        <v>10.80111870142094</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263671</v>
+        <v>0.1973933743263676</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410368</v>
+        <v>1.320184578410371</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148961</v>
+        <v>12.75020369148964</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333944</v>
+        <v>45.45372342333955</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435866</v>
+        <v>124.7284912435869</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970813</v>
+        <v>213.1808579970818</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289706</v>
+        <v>286.6479717289712</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963463</v>
+        <v>334.5046626963472</v>
       </c>
       <c r="N3" t="n">
-        <v>343.35800576823</v>
+        <v>343.3580057682308</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466107</v>
+        <v>314.1054948466115</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643994</v>
+        <v>252.0973516439946</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774358</v>
+        <v>168.5204033774362</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621571</v>
+        <v>81.96724952621591</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564871</v>
+        <v>24.52184951564877</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311965</v>
+        <v>5.321270296311978</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962953</v>
+        <v>0.08685424857962974</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665005</v>
+        <v>1.106798402665008</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057962</v>
+        <v>9.840443980057985</v>
       </c>
       <c r="I4" t="n">
-        <v>33.2844465092349</v>
+        <v>33.28444650923498</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841586</v>
+        <v>78.25064706841606</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823524</v>
+        <v>128.5898507823527</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653045</v>
+        <v>164.5507370653049</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195698</v>
+        <v>173.4956805195702</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187277</v>
+        <v>169.3703410187281</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148683</v>
+        <v>156.4409233148686</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900502</v>
+        <v>133.8622359005024</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770331</v>
+        <v>92.67927351770354</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528286</v>
+        <v>49.76568090528298</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735286</v>
+        <v>19.2884776173529</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477748</v>
+        <v>4.72904772047776</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354581</v>
+        <v>0.06037082196354596</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200301</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622024</v>
+        <v>28.37304427622072</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836506</v>
+        <v>93.7748669483658</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176154</v>
+        <v>153.6105215176164</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187866</v>
+        <v>202.9106335187876</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095283</v>
+        <v>210.8543522095294</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099598</v>
+        <v>185.6338248099608</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678496</v>
+        <v>123.5846788678504</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288177</v>
+        <v>44.1476070228824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227223</v>
+        <v>75.33941902272281</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490964</v>
+        <v>244.992363766019</v>
       </c>
       <c r="M3" t="n">
-        <v>192.370628774328</v>
+        <v>192.3706287743288</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848967</v>
+        <v>212.0162936848975</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021663</v>
+        <v>171.509250402167</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296637</v>
+        <v>118.1229442296643</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083337</v>
+        <v>28.53862929141468</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059072</v>
+        <v>106.3203589564698</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256207</v>
+        <v>192.1407623256211</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814104</v>
+        <v>213.0795574814108</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979563</v>
+        <v>213.5025133979567</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289079</v>
+        <v>181.0260512289083</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653955</v>
+        <v>131.1407951653958</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266008923</v>
+        <v>5.679490615451722</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313267</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>379.9148430313135</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378513</v>
@@ -35269,13 +35269,13 @@
         <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>280.0487856294198</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667043</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366968</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1766768.92848091</v>
+        <v>1768529.458783694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651791</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="G2" t="n">
-        <v>20.28958724568722</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739397</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.793800617969</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>103.8014741351771</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>62.25686894448897</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642722</v>
+        <v>18.19058462642691</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>148.2769983631252</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>95.43856719274802</v>
+        <v>261.6566238404581</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>104.1383913127193</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>148.6865099692908</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>10.18456372565635</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.0801771990911</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.7420523462572</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>46.13346796446857</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>165.226121848871</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.23930645615751</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.9738082135727</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>165.6720686991039</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>87.2147151485299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>64.35711883683373</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>3.453391420151112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119200303</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>118.6708469029954</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4057322893109</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2834074964109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>99.01360035611813</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9025715636457</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="C2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="D2" t="n">
-        <v>431.0698539958785</v>
+        <v>682.638037949253</v>
       </c>
       <c r="E2" t="n">
-        <v>165.0266067583238</v>
+        <v>416.5947907116957</v>
       </c>
       <c r="F2" t="n">
-        <v>158.0811060091203</v>
+        <v>150.5515434741386</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377191</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377191</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467345</v>
+        <v>49.1599390146738</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935558</v>
+        <v>141.9970572935572</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959961</v>
+        <v>294.071473595999</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795958</v>
+        <v>494.9530007796002</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670298</v>
+        <v>703.6988094670355</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288911</v>
+        <v>887.4762960288984</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108063</v>
+        <v>1009.825128108072</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193335</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357877</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="U2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="V2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="W2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="X2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0698539958785</v>
+        <v>948.6812851868101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>404.9439386420109</v>
+        <v>650.2300771021634</v>
       </c>
       <c r="C3" t="n">
-        <v>230.4909093608839</v>
+        <v>475.7770478210363</v>
       </c>
       <c r="D3" t="n">
-        <v>230.4909093608839</v>
+        <v>326.8426381597851</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6051831543294</v>
+        <v>167.6051831543296</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121433</v>
+        <v>66.14755341048966</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001370991</v>
+        <v>140.7335782429861</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420687</v>
+        <v>287.3462342725933</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286543</v>
+        <v>477.7931567591801</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767027</v>
+        <v>738.5421433767099</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748481</v>
+        <v>908.3363012748565</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062216</v>
+        <v>1025.278016062225</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155234</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155234</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155234</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155234</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155234</v>
+        <v>800.0048229235019</v>
       </c>
       <c r="W3" t="n">
-        <v>780.9195744270328</v>
+        <v>800.0048229235019</v>
       </c>
       <c r="X3" t="n">
-        <v>780.9195744270328</v>
+        <v>650.2300771021634</v>
       </c>
       <c r="Y3" t="n">
-        <v>573.1592756620789</v>
+        <v>650.2300771021634</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1872645935501</v>
+        <v>660.4157698563381</v>
       </c>
       <c r="C4" t="n">
-        <v>171.1872645935501</v>
+        <v>491.4795869284312</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121433</v>
+        <v>491.4795869284312</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121433</v>
+        <v>343.5664933460381</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121433</v>
+        <v>343.5664933460381</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121433</v>
+        <v>174.9966135927111</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121433</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481195</v>
+        <v>126.3277805481202</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504843</v>
+        <v>316.5471352504857</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157081</v>
+        <v>527.495897157083</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210581</v>
+        <v>738.0340231670147</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376772</v>
+        <v>917.2498138836345</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351419</v>
+        <v>1047.079201097377</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898971947</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="S4" t="n">
-        <v>924.7153898971947</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="T4" t="n">
-        <v>924.7153898971947</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="U4" t="n">
-        <v>924.7153898971947</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="V4" t="n">
-        <v>670.0309016913078</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="W4" t="n">
-        <v>573.6283085673199</v>
+        <v>660.4157698563381</v>
       </c>
       <c r="X4" t="n">
-        <v>573.6283085673199</v>
+        <v>660.4157698563381</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.8357294237898</v>
+        <v>660.4157698563381</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739746</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067967</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067967</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
         <v>137.5684432757741</v>
@@ -4570,19 +4570,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515908</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4682,10 +4682,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
         <v>1026.232198106091</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1038.612916774619</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>831.8258821851307</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>831.8258821851307</v>
+        <v>893.4999115754617</v>
       </c>
       <c r="U7" t="n">
-        <v>831.8258821851307</v>
+        <v>893.4999115754617</v>
       </c>
       <c r="V7" t="n">
-        <v>831.8258821851307</v>
+        <v>638.8154233695749</v>
       </c>
       <c r="W7" t="n">
-        <v>831.8258821851307</v>
+        <v>638.8154233695749</v>
       </c>
       <c r="X7" t="n">
-        <v>831.8258821851307</v>
+        <v>410.8258724715575</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>116.4560961428859</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>116.4560961428859</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331016</v>
+        <v>109.5105953936825</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>97.8462491583754</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>97.8462491583754</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815981</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923556</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2270.745048352009</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1939.682161008438</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1586.913505738324</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.913505738324</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.913505738324</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>119.9870984135519</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380169</v>
+        <v>304.7087196946019</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694898</v>
+        <v>599.4122767260735</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828711</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425658</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.86416460182</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>132.2965910691723</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074502</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868615</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831654</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5126,16 +5126,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101821</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5363,16 +5363,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169875</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3040775751642</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E16" t="n">
-        <v>411.3909839927711</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>264.5010364948607</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>97.30493720974067</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6663,10 +6663,10 @@
         <v>1648.869221910438</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2097.048807754114</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877333</v>
+        <v>60.59164343877273</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079778</v>
+        <v>47.64138615972085</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692194</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.36652108028272</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>170.9799771939101</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719403</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.454437538929909</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878278</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.574752399523959</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.21924749803927</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.07684380973544</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.8413214260727</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>62.35543909864924</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>79.42624789262636</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>79.42624789262629</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>66.34424953498214</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>251.492360717596</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>905498.5001913732</v>
+        <v>905498.5001913734</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909276</v>
+        <v>679702.4124909308</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680957484</v>
+        <v>366.4703680927663</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059455</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624544</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642046</v>
+        <v>68912.533186421</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774307851</v>
+        <v>85.2055977423763</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674036</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557678</v>
+        <v>63021.46164557698</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441637.2272455167</v>
+        <v>-441637.2272455196</v>
       </c>
       <c r="C6" t="n">
-        <v>237772.1561786942</v>
+        <v>237772.156178697</v>
       </c>
       <c r="D6" t="n">
-        <v>-72609.89885509806</v>
+        <v>-72609.89885509617</v>
       </c>
       <c r="E6" t="n">
-        <v>-76518.3160938722</v>
+        <v>-76205.674764953</v>
       </c>
       <c r="F6" t="n">
-        <v>430967.1255306717</v>
+        <v>431279.766859593</v>
       </c>
       <c r="G6" t="n">
-        <v>430967.1255306721</v>
+        <v>431279.766859593</v>
       </c>
       <c r="H6" t="n">
-        <v>430967.1255306721</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="I6" t="n">
-        <v>430967.1255306721</v>
+        <v>431279.7668595931</v>
       </c>
       <c r="J6" t="n">
-        <v>362054.5923442511</v>
+        <v>362367.2336731718</v>
       </c>
       <c r="K6" t="n">
-        <v>430881.9199329288</v>
+        <v>431194.5612618506</v>
       </c>
       <c r="L6" t="n">
-        <v>335584.4793931021</v>
+        <v>335897.1207220232</v>
       </c>
       <c r="M6" t="n">
-        <v>298359.831801745</v>
+        <v>298672.4731306662</v>
       </c>
       <c r="N6" t="n">
-        <v>430967.1255306716</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="O6" t="n">
-        <v>430967.1255306717</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="P6" t="n">
-        <v>430967.1255306715</v>
+        <v>431279.7668595928</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960499</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651791</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960499</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734283655</v>
+        <v>0.2849904734259781</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480634</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241324</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651791</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363270492</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363272766</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651791</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363270492</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.30022685550136</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070827</v>
+        <v>118.5475553070802</v>
       </c>
       <c r="F2" t="n">
+        <v>143.4932309765298</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392.5457330903682</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>147.346785398333</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.38821151091197</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500682</v>
+        <v>99.48524054500677</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807552</v>
+        <v>43.94290942807535</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881891</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27517,16 +27517,16 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>57.49598684035229</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825672</v>
+        <v>15.10853304825642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196194</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>191.084431143843</v>
+        <v>24.86637449613289</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>261.1345004582882</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>233.243860102971</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>222.6160234237689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>111.4244256845728</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>63.47229353330866</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>19.57644470800192</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>85.81912827959101</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>24.55728874774307</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.73584717546444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079596</v>
+        <v>2.467417179079605</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524891</v>
+        <v>25.26943618524901</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964662</v>
+        <v>95.12510079646657</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802907</v>
+        <v>209.4189488029078</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933463</v>
+        <v>313.8647179933476</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876036</v>
+        <v>389.3769364876051</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460604</v>
+        <v>433.256866746062</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061203</v>
+        <v>440.267415806122</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316476</v>
+        <v>415.7320362316491</v>
       </c>
       <c r="P2" t="n">
-        <v>354.81767462312</v>
+        <v>354.8176746231214</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973319</v>
+        <v>266.4532968973329</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753588</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827634</v>
+        <v>56.22626896827656</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142094</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263676</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410371</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148964</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333955</v>
+        <v>45.45372342333972</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435869</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970818</v>
+        <v>213.1808579970826</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289712</v>
+        <v>286.6479717289724</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963472</v>
+        <v>334.5046626963484</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682308</v>
+        <v>343.3580057682321</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466115</v>
+        <v>314.1054948466127</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439946</v>
+        <v>252.0973516439955</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774362</v>
+        <v>168.5204033774368</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621591</v>
+        <v>81.96724952621622</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564877</v>
+        <v>24.52184951564886</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311978</v>
+        <v>5.321270296311998</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962974</v>
+        <v>0.08685424857963008</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665008</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057985</v>
+        <v>9.840443980058025</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923498</v>
+        <v>33.2844465092351</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841606</v>
+        <v>78.25064706841636</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823527</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653049</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195702</v>
+        <v>173.4956805195709</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187281</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148686</v>
+        <v>156.4409233148692</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005024</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770354</v>
+        <v>92.67927351770389</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528298</v>
+        <v>49.76568090528317</v>
       </c>
       <c r="S4" t="n">
-        <v>19.2884776173529</v>
+        <v>19.28847761735298</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72904772047776</v>
+        <v>4.729047720477778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354596</v>
+        <v>0.06037082196354619</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622072</v>
+        <v>28.37304427622155</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7748669483658</v>
+        <v>93.77486694836705</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176164</v>
+        <v>153.6105215176179</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187876</v>
+        <v>202.9106335187893</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095294</v>
+        <v>210.8543522095311</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099608</v>
+        <v>185.6338248099624</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678504</v>
+        <v>123.5846788678518</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228824</v>
+        <v>44.14760702288342</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>45.53225073664156</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272281</v>
+        <v>75.33941902272363</v>
       </c>
       <c r="L3" t="n">
-        <v>244.992363766019</v>
+        <v>148.0935919490982</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743288</v>
+        <v>192.3706287743301</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848975</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="O3" t="n">
-        <v>171.509250402167</v>
+        <v>171.5092504021683</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296643</v>
+        <v>118.1229442296653</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141468</v>
+        <v>28.53862929141533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564698</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256211</v>
+        <v>192.1407623256217</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814108</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979567</v>
+        <v>212.6647737474057</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289083</v>
+        <v>181.0260512289089</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653958</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615451722</v>
+        <v>6.517230266009506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>69.4346584298473</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313135</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
